--- a/data/raw/thirdpostbatch4.xlsx
+++ b/data/raw/thirdpostbatch4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="510">
   <si>
     <t>postCategory</t>
   </si>
@@ -200,7 +200,7 @@
     <t>9093786647</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Hello there mature gentlemen browsing..... My name is Mia, I'm an Independent massage specialist that offers A REAL therapeutic massage experience also with a sensual &amp;amp; exotic combination. My pictures are real, all natural, No facades, No worries. I keep everything discreet when we meet. As the massage is over and we part ways you will feel very much satisfied &amp;amp; relaxed👌. Call for a session (909)378-6647&lt;b&gt; &lt;/b&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  Hello there mature gentlemen browsing..... My name is Mia, I'm an Independent massage specialist that offers A REAL therapeutic massage experience also with a sensual &amp;amp; exotic combination. My pictures are real, all natural, No facades, No worries. I keep everything discreet when we meet. As the massage is over and we part ways you will feel very much satisfied &amp;amp; relaxed👌. Call for a session (909)378-6647    </t>
   </si>
   <si>
     <t>1012</t>
@@ -218,7 +218,7 @@
     <t>8188501401</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; Relax with a 2 hour heavenly experience!!! Experience Heavenly Bliss with a Gorgeous Angel!! Your Chakras will be revived and enlightened!! Ahhh...rejuievenate your mind, body, and soul. Feel refreshed! I have over 80 percent repeat clientele and aim to gain you as a new client who wants you to keep coming back for more and more! I take my time and don't rush my sessions. I treat you like a king! Super zen awaits! Rejuvenate your body, soul, and mind!...:) Ask about my 2 hour special! Happy Hour Special: (10 percent off from 4pm to 9pm) !***(weekdays only) Relax and take a break for a change - Don't stress any longer! Pamper yourself and undwind with a full body pampering session! Beautiful Therapist. Call or text Rachel at: (818) 850-1401 for an appointment now!  I never rush my sessions. I want you to feel rejuivenated and relaxed.  Trained in different techniques such as reiki, swedish, shiatsu, deep tissue, and lite touch.  😍🎀😍😘 AVAILABLE NOW!!! - Until 3:00AM Monday Morning.💞🎀👙💞😘   &lt;b&gt;I go to you to the following areas: Beverly Hills, Hollywood and Hollywood Hills, West Hollywood, Marina Del Rey, LAX, Downtown LA, Studio City, and Santa Monica areas. &lt;/b&gt; Don't wait any longer and experience tranquility and bliss today. Call Rachel for an appointment at: (818) 850-1401 Thank you, and have a wonderful day! An advance notice of an hour or more is appreciated! 2 and four hands available. 24/7 with advance notice and an appointment. Please be a gentleman as inappropriate language will not be tolerated Please call me as I do not check my emails often. Please call or text: (818) 850-1401 For an appointment now! Please be a gentleman as innopropriate language will not be tolerated. It is best to call or text as I rarely check emails. For an appointment call Rachel at: (818) 850-1401. Thank you, and Have a blissful day!...:)</t>
+    <t xml:space="preserve">    Relax with a 2 hour heavenly experience!!! Experience Heavenly Bliss with a Gorgeous Angel!! Your Chakras will be revived and enlightened!! Ahhh...rejuievenate your mind, body, and soul. Feel refreshed! I have over 80 percent repeat clientele and aim to gain you as a new client who wants you to keep coming back for more and more! I take my time and don't rush my sessions. I treat you like a king! Super zen awaits! Rejuvenate your body, soul, and mind!...:) Ask about my 2 hour special! Happy Hour Special: (10 percent off from 4pm to 9pm) !***(weekdays only) Relax and take a break for a change - Don't stress any longer! Pamper yourself and undwind with a full body pampering session! Beautiful Therapist. Call or text Rachel at: (818) 850-1401 for an appointment now!  I never rush my sessions. I want you to feel rejuivenated and relaxed.  Trained in different techniques such as reiki, swedish, shiatsu, deep tissue, and lite touch.  😍🎀😍😘 AVAILABLE NOW!!! - Until 3:00AM Monday Morning.💞🎀👙💞😘    I go to you to the following areas: Beverly Hills, Hollywood and Hollywood Hills, West Hollywood, Marina Del Rey, LAX, Downtown LA, Studio City, and Santa Monica areas.   Don't wait any longer and experience tranquility and bliss today. Call Rachel for an appointment at: (818) 850-1401 Thank you, and have a wonderful day! An advance notice of an hour or more is appreciated! 2 and four hands available. 24/7 with advance notice and an appointment. Please be a gentleman as inappropriate language will not be tolerated Please call me as I do not check my emails often. Please call or text: (818) 850-1401 For an appointment now! Please be a gentleman as innopropriate language will not be tolerated. It is best to call or text as I rarely check emails. For an appointment call Rachel at: (818) 850-1401. Thank you, and Have a blissful day!...:)</t>
   </si>
   <si>
     <t>💝💕👙❤️AVAILABLE NOW!!!- 2 HOUR SPECIAL - Gorgeous Therapist That Will Take you to Heavenly Bliss</t>
@@ -335,7 +335,7 @@
     <t>1372023 2466502 4135717 2138075615</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413571705.jpg"/&gt; &lt;i&gt;&lt;font color="green"&gt;&lt;b&gt;▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬&lt;/b&gt;&lt;/font&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413571705.jpg"/&gt;  &lt;font color="green"&gt; ▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬ &lt;/font&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>💜💕💜 ● ▬▬▬▬▬ ► New Staff ▬▬💜💕💜 💕 ● New Management ▬▬💜💕💜 💕 ►213-807-5615 💜💕💜 ● ▬▬▬▬▬ ►</t>
@@ -380,7 +380,7 @@
     <t>3108660337</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;The Sexy Dreamy Aisan Girls Are Waiting for U. 🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹 &lt;a&gt;Cute Face ，Soft Skin And Great Smile. Always Beautiful and Attractive Natural Body &lt;/a&gt; I provide the best service for you! You will get the experience you never had before. Let me share my Eroctic side with you. My touch is soft and slow. 310-866-0337 Don't miss me out! &lt;/b&gt;</t>
+    <t xml:space="preserve">  The Sexy Dreamy Aisan Girls Are Waiting for U. 🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹 &lt;a&gt;Cute Face ，Soft Skin And Great Smile. Always Beautiful and Attractive Natural Body &lt;/a&gt; I provide the best service for you! You will get the experience you never had before. Let me share my Eroctic side with you. My touch is soft and slow. 310-866-0337 Don't miss me out!  </t>
   </si>
   <si>
     <t>🌳🌺🌳New🌺 Gute Hot🌳Aisan🌺🌳🌳🌺 Girls 🌳🌺💯Real  pic 🌳🌺 🌳🌺SEXY BODY Dont BE Alone   ☎️Call Me Now🌳🌺🌳🌺🌳🌺🌳🌺🌳</t>
@@ -410,7 +410,7 @@
     <t>2135597675</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;i&gt; &lt;a&gt;call: 213-559-7675&lt;/a&gt; Hi, Gentlemen, Allow me to satisfy your wildest fantasy! &lt;ul&gt; What I'm going to offer you: &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation I aim to please and LOVE to satisfy... 100% DISCREET AVAILABLE NIGHT &amp;amp; DAY NO RUSH NO FUSS Playful I am charming and elegant lady with a passion for life. Romantic, warm, sensitive companionship. Really Pretty Asia Sweet! Call me &amp;amp; let us meet. &lt;/i&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">    &lt;a&gt;call: 213-559-7675&lt;/a&gt; Hi, Gentlemen, Allow me to satisfy your wildest fantasy! &lt;ul&gt; What I'm going to offer you: &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation I aim to please and LOVE to satisfy... 100% DISCREET AVAILABLE NIGHT &amp;amp; DAY NO RUSH NO FUSS Playful I am charming and elegant lady with a passion for life. Romantic, warm, sensitive companionship. Really Pretty Asia Sweet! Call me &amp;amp; let us meet.   </t>
   </si>
   <si>
     <t>💚◼💚◼💚◼💚———🔞◼🔲🔞 NEW SENSE 💚◼💚◼💚◼💚◼💚 NEW SEXY ASIAN  🔞◼🔲🔞———💚◼💚◼💚◼💚</t>
@@ -479,6 +479,9 @@
     <t>▬▬▬▬▬▬▬▬▬🔴🔴🔴🔴🔴🔴 ▬▬Experience Amazing Asian  Unforgettable Experience ▬ 🔴🔴🔴🔴🔴 ▬▬▬▬▬▬▬▬▬▬▬▬</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>141699407</t>
   </si>
   <si>
@@ -491,6 +494,9 @@
     <t>Hello gentlemen.........I am Sexy Hayley..the girl that you have been looking for..😍    Stop wasting your time with the rest and call the best!  I'm Latina girl you dreamed of with a unforgettable body, seductive eyes,  Soft luscious lips, beautiful face and a captivating smile.....    ☑100% REAL&amp;RECENT; PICS!!    ☑100% OPENMINDED!!    ☑100% INDEPENDENT!!    ☑100% NON RUSHED EXPERIENCE!!    Hayley 562-453-3780</t>
   </si>
   <si>
+    <t>143</t>
+  </si>
+  <si>
     <t>AVAILABLE NOW!!! 100% Real!! P E T I T E, Open-Minded!! PuRe Satisfaction GUARANTEED!!!!</t>
   </si>
   <si>
@@ -587,7 +593,7 @@
     <t>4243941583</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; Hello Ladies &amp; Gentleman,    Professional services for Professional adults in the comfort of your own home, apartment, or hotel.   &lt;b&gt; 424-394-1583&lt;/b&gt;    If you want someone who is Fit, Handsome, Clean Cut, College Educated, Mature, Oh and provides an amazing Massage &amp; Experience then you found your new best friend.    First Time? No problem. We can meet in public if you want. Get Starbucks. Trust &amp; Comfort is priority!       &lt;b&gt;Monday - Friday:&lt;/b&gt; 7pm till 1am   &lt;b&gt;Saturday - Sunday: &lt;/b&gt; Anytime     &lt;b&gt;PLEASE TEXT FIRST&lt;/b&gt; . I can call you back if you want to speak on the phone.     &lt;b&gt;424-394-1583&lt;/b&gt;    No Games, Real Pictures, Just Quality Service.   &lt;b&gt; MATURE CLIENTS ONLY PLEASE. OUTCALL ONLY&lt;/b&gt;   &lt;b&gt; I COME TO YOU...! &lt;/b&gt;      Thanks &amp; see you soon!                Available Locations: Laguna Beach, Irvine, Orange County, Long Beach, Carson, Manhattan Beach, Hermosa Beach, Santa Monica, Century City, Westwood, Beverly Hills, Hollywood, West Hollywood, Burbank, Studio City, Glendale, Pasadena, Downtown LA, Los Angeles, Woodland Hills, Encino, Calabasas, Malibu, Thousand Oaks, Porter Ranch, Valencia, Sherman Oaks</t>
+    <t xml:space="preserve">                Hello Ladies &amp; Gentleman,    Professional services for Professional adults in the comfort of your own home, apartment, or hotel.     424-394-1583     If you want someone who is Fit, Handsome, Clean Cut, College Educated, Mature, Oh and provides an amazing Massage &amp; Experience then you found your new best friend.    First Time? No problem. We can meet in public if you want. Get Starbucks. Trust &amp; Comfort is priority!        Monday - Friday:  7pm till 1am    Saturday - Sunday:   Anytime      PLEASE TEXT FIRST  . I can call you back if you want to speak on the phone.      424-394-1583     No Games, Real Pictures, Just Quality Service.     MATURE CLIENTS ONLY PLEASE. OUTCALL ONLY      I COME TO YOU...!        Thanks &amp; see you soon!                Available Locations: Laguna Beach, Irvine, Orange County, Long Beach, Carson, Manhattan Beach, Hermosa Beach, Santa Monica, Century City, Westwood, Beverly Hills, Hollywood, West Hollywood, Burbank, Studio City, Glendale, Pasadena, Downtown LA, Los Angeles, Woodland Hills, Encino, Calabasas, Malibu, Thousand Oaks, Porter Ranch, Valencia, Sherman Oaks</t>
   </si>
   <si>
     <t>Sensual Massage by Male Fitness Model - Men, Women, Couples</t>
@@ -665,7 +671,7 @@
     <t>3236561068</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt; WELL TRAINED M4M MASSAGE FROM THAILAND!&lt;/b&gt;  &lt;i&gt; Muscular and Masculine Thai Guy Thai full body massage: $50 All day STRONG technique massage&lt;/i&gt;   &lt;b&gt; Full Hour Service, Parking lot, and Accepted Credit Card &lt;b&gt;PLEASE KINDLY CONTACT ☎️ (323) 656-1068 &lt;/b&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">   WELL TRAINED M4M MASSAGE FROM THAILAND!     Muscular and Masculine Thai Guy Thai full body massage: $50 All day STRONG technique massage      Full Hour Service, Parking lot, and Accepted Credit Card  PLEASE KINDLY CONTACT ☎️ (323) 656-1068   </t>
   </si>
   <si>
     <t>⚫️_____M4M _____Real Pic _____New Asia in town _______⚫️</t>
@@ -782,7 +788,7 @@
     <t>7472468880</t>
   </si>
   <si>
-    <t>Hi guys,  I'm Jesse, the tattooed, blonde, busty bad girl you fantasize about...Now you can get the most amazing rubdown with skilled, trained hands- sure to have running back for more! I offer a therapeutic, deep tissue-like massage/bodyrub with a sensual, erotic twist.... So whether your muscles are tight and sore, or you are stressed to the max, or even if you are up late and sleep is no where in sight- call Jesse for all your relaxation and stress relieving needs!  ⚠ &lt;b&gt;No FS, No exceptions!&lt;/b&gt; ⚠    🔸🔶🔸Safe, discreet, independent, b.s. free!🔸🔶🔸    ↪Late night/early a.m. sessions available↩    🔹🔷Pics are 100% me! PLEASE don't ask for more!🔷🔹    🚫Not an escort, no escort services!🚫  ❕ No black men, sorry❕....    🔹🔵🔹(747)246-8880🔹🔵🔹  ◀◾◾▶ &lt;b&gt;OUTCALLS: $120/hhr $180/hr◀◾◾▶ &lt;/b&gt;   &lt;b&gt; 🔹🔴🔷INCALL🔷🔴🔹 ↘$100/Half hour💜$160/Full hour↙ &lt;/b&gt;</t>
+    <t xml:space="preserve">Hi guys,  I'm Jesse, the tattooed, blonde, busty bad girl you fantasize about...Now you can get the most amazing rubdown with skilled, trained hands- sure to have running back for more! I offer a therapeutic, deep tissue-like massage/bodyrub with a sensual, erotic twist.... So whether your muscles are tight and sore, or you are stressed to the max, or even if you are up late and sleep is no where in sight- call Jesse for all your relaxation and stress relieving needs!  ⚠  No FS, No exceptions!  ⚠    🔸🔶🔸Safe, discreet, independent, b.s. free!🔸🔶🔸    ↪Late night/early a.m. sessions available↩    🔹🔷Pics are 100% me! PLEASE don't ask for more!🔷🔹    🚫Not an escort, no escort services!🚫  ❕ No black men, sorry❕....    🔹🔵🔹(747)246-8880🔹🔵🔹  ◀◾◾▶  OUTCALLS: $120/hhr $180/hr◀◾◾▶       🔹🔴🔷INCALL🔷🔴🔹 ↘$100/Half hour💜$160/Full hour↙  </t>
   </si>
   <si>
     <t>1147</t>
@@ -845,7 +851,7 @@
     <t>0113818 1183083295 4474297</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt;&lt;i&gt;&lt;a&gt;&lt;b&gt;——————— ◆ ☆ Wonderful Bodywork ☆ ◆———————&lt;/b&gt;&lt;/a&gt; &lt;ol&gt;▬▬► ENJOY YOUR VISIT HERE TODAY ! ▬▬► Visit us to see the friendliest and the best SPA in Town&lt;/ol&gt; &lt;a&gt;?———————— ◆ Call 310 - 636 - 0020 ◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► near W. Washington Blvd and Sepulveda Blvd ▬▬► 4133 Sepulveda Blvd., Culver City, California 90230&lt;/ol&gt; &lt;a&gt;?———————— ◆&lt;a href="https://www.google.com/maps/place/4133+Sepulveda+Blvd,+Culver+City,+CA+90230/@34.0113818,-118.3083295,13z/data=!4m2!3m1!1s0x80c2ba3e3ab9182f:0x1f44742973fc2973" target="_blank"&gt;&lt;b&gt; MAP : CLICK HERE &lt;/b&gt;&lt;/a&gt;&lt;a&gt;◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► 7 days a week ▬▬► Clean and Safe&lt;/ol&gt; &lt;b&gt;&lt;a&gt;———————— ◆ Call 310 - 636 - 0020 ◆ ———————— &lt;/a&gt;&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt; &lt;a&gt; ——————— ◆ ☆ Wonderful Bodywork ☆ ◆——————— &lt;/a&gt; &lt;ol&gt;▬▬► ENJOY YOUR VISIT HERE TODAY ! ▬▬► Visit us to see the friendliest and the best SPA in Town&lt;/ol&gt; &lt;a&gt;?———————— ◆ Call 310 - 636 - 0020 ◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► near W. Washington Blvd and Sepulveda Blvd ▬▬► 4133 Sepulveda Blvd., Culver City, California 90230&lt;/ol&gt; &lt;a&gt;?———————— ◆&lt;a href="https://www.google.com/maps/place/4133+Sepulveda+Blvd,+Culver+City,+CA+90230/@34.0113818,-118.3083295,13z/data=!4m2!3m1!1s0x80c2ba3e3ab9182f:0x1f44742973fc2973" target="_blank"&gt;  MAP : CLICK HERE  &lt;/a&gt;&lt;a&gt;◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► 7 days a week ▬▬► Clean and Safe&lt;/ol&gt;  &lt;a&gt;———————— ◆ Call 310 - 636 - 0020 ◆ ———————— &lt;/a&gt; &lt;/a&gt; &lt;/ol&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>1123</t>
@@ -863,7 +869,7 @@
     <t>0674717 1179749 1179727953</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt; &lt;b&gt; 🌌&lt;a&gt; I.V.Y 🌌&lt;/a&gt; ASIAN &amp;amp; LATINA &amp;amp; WHITE 🌌 TABLE SHOWER 🌌 Swedish • Deep Tissue 🌌 9AM TO 9PM &lt;a href="https://www.google.com/maps/place/13912+Francisquito+Ave,+Baldwin+Park,+CA+91706/@34.0674717,-117.974984,17z/data=!3m1!4b1!4m5!3m4!1s0x80c2d709e94c8d11:0x309dc3a5b77f7b7a!8m2!3d34.0674717!4d-117.9727953" target="_blank"&gt;🔶CLICK... MAP 🔶 Hacienda Heights / AZUSA &lt;/a&gt;&lt;/b&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;   🌌&lt;a&gt; I.V.Y 🌌&lt;/a&gt; ASIAN &amp;amp; LATINA &amp;amp; WHITE 🌌 TABLE SHOWER 🌌 Swedish • Deep Tissue 🌌 9AM TO 9PM &lt;a href="https://www.google.com/maps/place/13912+Francisquito+Ave,+Baldwin+Park,+CA+91706/@34.0674717,-117.974984,17z/data=!3m1!4b1!4m5!3m4!1s0x80c2d709e94c8d11:0x309dc3a5b77f7b7a!8m2!3d34.0674717!4d-117.9727953" target="_blank"&gt;🔶CLICK... MAP 🔶 Hacienda Heights / AZUSA &lt;/a&gt; &lt;/ol&gt;</t>
   </si>
   <si>
     <t>🔴🌌🔴🌌🔴🌌🔴🌌🔴🌌 ▃▃▃▃ NEW MANAGEMENT ▃ GLOBAL Staff ▃ FIRST CLASS QUALITY SERVICE ▃▃▃ 🔴🌌🔴🌌🔴🌌🔴🌌🔴🌌</t>
@@ -899,7 +905,7 @@
     <t>Downtown, Los Angeles, los angeles, santa monica, pasadena</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;* Just What You Want ... &amp;amp; More in an Upscale Spa !!! &lt;/b&gt;    &lt;b&gt; * Voted the BEST MASSAGE in Town with Clean Private Room, Private Shower, Table Shower, Nice Background Music! &lt;/b&gt;    &lt;b&gt; * Cute, Young &amp;amp; Friendly Asian Girls Will Sooth Your Pains &amp;amp; Stress Away...&lt;/b&gt;    &lt;b&gt;* Front &amp;amp; Back Entrance for the Discrete Gentleman &lt;/b&gt;    &lt;b&gt;* First Come First Served. No Rain Check Pls !&lt;/b&gt;     &lt;b&gt;&lt;u&gt;&lt;i&gt;Business Location:&lt;/i&gt;&lt;/u&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  * Just What You Want ... &amp;amp; More in an Upscale Spa !!!        * Voted the BEST MASSAGE in Town with Clean Private Room, Private Shower, Table Shower, Nice Background Music!        * Cute, Young &amp;amp; Friendly Asian Girls Will Sooth Your Pains &amp;amp; Stress Away...      * Front &amp;amp; Back Entrance for the Discrete Gentleman       * First Come First Served. No Rain Check Pls !         Business Location:   </t>
   </si>
   <si>
     <t>1014</t>
@@ -983,7 +989,7 @@
     <t>3103256178</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro   &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies &lt;b&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro    GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies    </t>
   </si>
   <si>
     <t>1007</t>
@@ -1001,7 +1007,7 @@
     <t>3234360077</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt;🔲🔲💠🔲🔲➖▐ BEBE SPA▐ ➖🔲🔲💠🔲🔲-&lt;/a&gt;&lt;p&gt; 💞SWEET ASIAN &amp;amp; Hot Latina💞&lt;p&gt; Refresh mind &amp;amp; body with an Asian &amp;amp; Latina Relaxation&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 323-436-0077 ———💠&lt;p&gt;&lt;a&gt; ★——OPEN : 10AM - 10PM——★&lt;/a&gt;&lt;p&gt; 　We Promise You won’t regret!!!&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt;🔲🔲💠🔲🔲➖▐ BEBE SPA▐ ➖🔲🔲💠🔲🔲-&lt;/a&gt;&lt;p&gt; 💞SWEET ASIAN &amp;amp; Hot Latina💞&lt;p&gt; Refresh mind &amp;amp; body with an Asian &amp;amp; Latina Relaxation&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 323-436-0077 ———💠&lt;p&gt;&lt;a&gt; ★——OPEN : 10AM - 10PM——★&lt;/a&gt;&lt;p&gt; 　We Promise You won’t regret!!!&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; </t>
   </si>
   <si>
     <t>◥◣◥◣❗️❗️❗️ BUSTY Latina &amp; PETITE Asian❗️❗️❗️ ◥◣◥◣◥◣◥◣◥◣💙💗BEBE SPA💗💙◥◣◥◣◥◣◥◣◥◣◥◣💙NEW FACE❗ NEW STYLE❗ 💙◥◣◥</t>
@@ -1016,7 +1022,7 @@
     <t>3106730366</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt; &lt;b&gt;🔲🍎🔲&lt;a&gt; 　HT ACUPRESSURE 　&lt;/a&gt;🔲🍎🔲&lt;ol&gt;&lt;p&gt; 🔲🌆 TEL : &lt;a&gt;310-673-0366 🌆🔲&lt;/a&gt; &lt;/p&gt;&lt;/ol&gt;&lt;p&gt;🌟 Service you will never forget about! &lt;ol&gt;&lt;p&gt;🌟 AMAZING INT. MODEL LINEUPS!!&lt;/p&gt;&lt;/ol&gt; &lt;p&gt;🌟 Beautiful Young Latina, Asian &amp;amp; Blonde Staff&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;  🔲🍎🔲&lt;a&gt; 　HT ACUPRESSURE 　&lt;/a&gt;🔲🍎🔲&lt;ol&gt;&lt;p&gt; 🔲🌆 TEL : &lt;a&gt;310-673-0366 🌆🔲&lt;/a&gt; &lt;/p&gt;&lt;/ol&gt;&lt;p&gt;🌟 Service you will never forget about! &lt;ol&gt;&lt;p&gt;🌟 AMAZING INT. MODEL LINEUPS!!&lt;/p&gt;&lt;/ol&gt; &lt;p&gt;🌟 Beautiful Young Latina, Asian &amp;amp; Blonde Staff&lt;/p&gt;&lt;/p&gt; &lt;/ol&gt;</t>
   </si>
   <si>
     <t>🌟⬛️❎❎❎❎❎❎❎❎❎⬛️— HT—🍎 —— ▐S ▐P ▐E ▐C ▐I ▐A ▐L　TODAY🍎—🌟⬛️❎❎❎❎❎❎❎❎❎⬛️ 5 MIN FROM LAX ——⬛️❎❎❎❎❎❎❎❎⬛️</t>
@@ -1082,7 +1088,7 @@
     <t>3102169294</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;big&gt;&lt;ol&gt;&lt;b&gt; &lt;b&gt;&lt;a&gt;📙⬛📙——— SUPER SPA ———📙⬛📙&lt;/a&gt; &lt;font color="#FF0000" size="5"&gt; 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX)&lt;/font&gt; &lt;u&gt;🚺——— Dream Inducing Bodywork ———🚺&lt;/u&gt; &lt;a&gt;🍫 : 30 mins massage $35 &lt;/a&gt; 🌹 you'll always meet friendly and well trained Asian staff 🌹 Water Massage / Body Wash / Body Scrub 🌹 Deep Tissue / shiatsu / Swedish / Hot Oil Massage 🚺 STEAM SAUNA 🚺 &lt;b&gt;&lt;a&gt;🌻⬛🌻——— TEL: 310-216-9294 ———🌻⬛🌻&lt;/a&gt; 🌹 Open Daily 10am To 10pm &lt;u&gt;🌹 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX) &lt;a href="http://maps.google.com/maps?q=9138+S.+Sepulveda+Blvd,+LA+CA&amp;amp;hl=en&amp;amp;hnear=9138+S+Sepulveda+Blvd,+Los+Angeles,+California+90045&amp;amp;gl=us&amp;amp;t=m&amp;amp;z=16&amp;amp;iwloc=A" target="_blank"&gt;🌻⬛🌻——— Google Map…CLICK ———🌻⬛🌻&lt;/a&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/ol&gt;&lt;/big&gt;</t>
+    <t xml:space="preserve"> &lt;big&gt;&lt;ol&gt;   &lt;a&gt;📙⬛📙——— SUPER SPA ———📙⬛📙&lt;/a&gt; &lt;font color="#FF0000" size="5"&gt; 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX)&lt;/font&gt;  🚺——— Dream Inducing Bodywork ———🚺  &lt;a&gt;🍫 : 30 mins massage $35 &lt;/a&gt; 🌹 you'll always meet friendly and well trained Asian staff 🌹 Water Massage / Body Wash / Body Scrub 🌹 Deep Tissue / shiatsu / Swedish / Hot Oil Massage 🚺 STEAM SAUNA 🚺  &lt;a&gt;🌻⬛🌻——— TEL: 310-216-9294 ———🌻⬛🌻&lt;/a&gt; 🌹 Open Daily 10am To 10pm  🌹 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX) &lt;a href="http://maps.google.com/maps?q=9138+S.+Sepulveda+Blvd,+LA+CA&amp;amp;hl=en&amp;amp;hnear=9138+S+Sepulveda+Blvd,+Los+Angeles,+California+90045&amp;amp;gl=us&amp;amp;t=m&amp;amp;z=16&amp;amp;iwloc=A" target="_blank"&gt;🌻⬛🌻——— Google Map…CLICK ———🌻⬛🌻&lt;/a&gt;    &lt;/ol&gt;&lt;/big&gt;</t>
   </si>
   <si>
     <t>🔴⬛⬛🔴▬▬▬SUPER SPA ▬▬▬🔴⬛⬛🔴▬▬▬▬▬▬7 STAFF ▬▬▬▬▬🔴⬛⬛🔴▬▬▬ LAX 1 BROCK ▬▬▬🔴⬛⬛🔴▬▬▬ T SHOWER ▬▬▬🔴⬛⬛🔴</t>
@@ -1223,7 +1229,7 @@
     <t>Downey, Downtown, Long Beach, Los Angeles, Norwalk, 🎯🎯🎯Downey/Huntington Park/South Gate</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;p&gt;&lt;b&gt; 🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;p&gt;  🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt; </t>
   </si>
   <si>
     <t>904</t>
@@ -1259,7 +1265,7 @@
     <t>1374866 2476996 4134958 2474971 4130760 3108545473</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1613/13748660/24769961/413495801.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076021.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076020.jpg"/&gt; &lt;b&gt;&lt;a&gt;&lt;i&gt; ————————— 💃 Call now: 310-854-5473 💃—————————— &lt;/i&gt;&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1613/13748660/24769961/413495801.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076021.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076020.jpg"/&gt;  &lt;a&gt;  ————————— 💃 Call now: 310-854-5473 💃——————————  &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>1103</t>
@@ -1322,7 +1328,7 @@
     <t>4247509700</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Very nice massage therapists&lt;/b&gt; to sooth and relax your muscles    --Swedish, Deep Tissue, Shiatsu -- Relaxing massage    --Calm your mind and feel your troubles melt away.    Open e very day 10:30 am - 9:30 p.m.     &lt;b&gt;1 hour - $60 1/2 hr. - $40 Combo - 1/2 hr. massage + 1/2 hr. facial - $80&lt;/b&gt;    6225 W. 87th St.,  Westchester, CA 90045  tel:424-750-9700</t>
+    <t xml:space="preserve">  Very nice massage therapists  to sooth and relax your muscles    --Swedish, Deep Tissue, Shiatsu -- Relaxing massage    --Calm your mind and feel your troubles melt away.    Open e very day 10:30 am - 9:30 p.m.      1 hour - $60 1/2 hr. - $40 Combo - 1/2 hr. massage + 1/2 hr. facial - $80     6225 W. 87th St.,  Westchester, CA 90045  tel:424-750-9700</t>
   </si>
   <si>
     <t>Lovely, Relaxing Asian Massage in Westchester  ***** ***** *****</t>
@@ -1346,7 +1352,7 @@
     <t>Los Angeles, Westside, 🔥 Long Beach/Torrance/Gardena/Carson</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/k.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/m.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="12"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="12"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/e.gif"/&gt;&lt;/a&gt;&lt;/ol&gt;   &lt;font color="RED" face="Palatino Linotype" size="4"&gt;&lt;b&gt;🆕🆕🆕 —— NEW Management &amp;amp; NEW STAFF —— 🆕🆕🆕&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;Sweet and caring Asian &amp;amp; Latina STAFF&lt;/i&gt;&lt;/a&gt; &lt;b&gt;Excellent touch full body massage !&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;Life is too short and get a wonderful massage !&lt;/i&gt;&lt;/a&gt; &lt;b&gt;Relax, unwind, all tension and anxiety&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;High Quality VIP Excellent Service&lt;/i&gt; &lt;ol&gt;&lt;font color="red" size="6"&gt;CALL 👌 ☎☎☎— &lt;b&gt;310 - 272 - 0749&lt;/b&gt;&lt;/font&gt;&lt;/ol&gt;&lt;/a&gt; &lt;/font&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/k.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/m.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="12"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="12"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/dec/e.gif"/&gt;&lt;/a&gt;&lt;/ol&gt;   &lt;font color="RED" face="Palatino Linotype" size="4"&gt; 🆕🆕🆕 —— NEW Management &amp;amp; NEW STAFF —— 🆕🆕🆕  &lt;a&gt;—————— Sweet and caring Asian &amp;amp; Latina STAFF &lt;/a&gt;  Excellent touch full body massage !  &lt;a&gt;—————— Life is too short and get a wonderful massage ! &lt;/a&gt;  Relax, unwind, all tension and anxiety  &lt;a&gt;—————— High Quality VIP Excellent Service  &lt;ol&gt;&lt;font color="red" size="6"&gt;CALL 👌 ☎☎☎—  310 - 272 - 0749 &lt;/font&gt;&lt;/ol&gt;&lt;/a&gt; &lt;/font&gt;</t>
   </si>
   <si>
     <t>▐ ☼▐ 🆕▐ ☼▐ ▬▐ ☼▐ ▬ 🆕▬ *NEW Management &amp; NEW STAFF  - [ All Updated ]  *▬ ☆🆕🆕☆ ▬ MELT YOUR STRESS</t>
@@ -1448,7 +1454,7 @@
     <t>3109993963 3103289777</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;font color="fuchsia"&gt;&lt;font size="5"&gt;&lt;big&gt;&lt;center&gt;Exactly What you have been Looking For: Come and relax with her delicious Massage Today!&lt;/center&gt;&lt;/big&gt;&lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;* Pretty, Sweet &amp;amp; Lovely Asian Girls are ready to serve &lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt;* Providing Excellent Therapeutic Massage Experience With Natural Relaxation! &lt;font color="olive"&gt;&lt;font size="5"&gt;Satisfaction Guaranteed! &lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;Full body massage: $40/60min $60/90mins&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="fuchsia"&gt; CALL:310-999-3963 (Lawndale)(FREE TABLE SHOWER)&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="olive"&gt;&lt;u&gt;Telephone:310-328-9777 (Torrance)(FREE SHOWER)&lt;/u&gt;&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="purple"&gt; 4501 Artesia Blvd.,Lawndale,CA 90260 ★(FREE TABLE SHOWER) &lt;/font&gt; &lt;font size="5"&gt;&lt;font color="blue"&gt;1880 W. Carson St. #F Torrance, CA 90501 ★(FREE SHOWER) &lt;/font&gt; &lt;font color="olive"&gt;&lt;font size="5"&gt;Open 7 days from 10:00AM-10:00PM &lt;/font&gt; &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;Walk In is welcome, reservation is more than welcome. &lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;&lt;big&gt;&lt;center&gt;Exactly What you have been Looking For: Come and relax with her delicious Massage Today!&lt;/center&gt;&lt;/big&gt;&lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;* Pretty, Sweet &amp;amp; Lovely Asian Girls are ready to serve &lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt;* Providing Excellent Therapeutic Massage Experience With Natural Relaxation! &lt;font color="olive"&gt;&lt;font size="5"&gt;Satisfaction Guaranteed! &lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;Full body massage: $40/60min $60/90mins&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="fuchsia"&gt; CALL:310-999-3963 (Lawndale)(FREE TABLE SHOWER)&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="olive"&gt; Telephone:310-328-9777 (Torrance)(FREE SHOWER) &lt;/font&gt; &lt;font size="5"&gt;&lt;font color="purple"&gt; 4501 Artesia Blvd.,Lawndale,CA 90260 ★(FREE TABLE SHOWER) &lt;/font&gt; &lt;font size="5"&gt;&lt;font color="blue"&gt;1880 W. Carson St. #F Torrance, CA 90501 ★(FREE SHOWER) &lt;/font&gt; &lt;font color="olive"&gt;&lt;font size="5"&gt;Open 7 days from 10:00AM-10:00PM &lt;/font&gt; &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;Walk In is welcome, reservation is more than welcome. &lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; </t>
   </si>
   <si>
     <t>▐ 💟▐ ▃▃▃▃▃▃▃CLICK HERE ▃▃▃▃▃▃▃▃▃▐ 💖▐ We have Sweet Asian CMT here💖Do Not Miss them💖💖💖💖</t>
@@ -1490,7 +1496,7 @@
     <t>3107563363</t>
   </si>
   <si>
-    <t>ADA WONG &lt;p align="center"&gt;&lt;font size="7"&gt;ADA WONG'S MASSAGE &lt;/font&gt;&lt;/p&gt;  &lt;p align="center"&gt;&lt;font size="6"&gt;NEW GIRLS TODAY &lt;p align="center"&gt;&lt;font size="6"&gt;All New Girls. Come try a massage today &lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt;We offer a quality massage to relieve your stress. TRY 4 HANDS.&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt; &lt;font size="6"&gt;11287 Washington Blvd. Culver City, Ca. 90230&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="4"&gt;Just west of the 405&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt;&lt;b&gt;TEL: 310-756-3363&lt;/b&gt;&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt;&lt;b&gt;Open 9:30am to 10pm OPEN 7 DAYS&lt;/b&gt;&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt;Just $40/half hr. &lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="5"&gt;Cross streets Washington Blvd and Sawtelle. Just a few doors down&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="5"&gt;from the 7/11&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="4"&gt;&lt;b&gt;Plenty of parking in the back too. Just&lt;/b&gt; ring the bell.&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="4"&gt;Come in 10 times and get 1 time free.&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;b&gt;&lt;font size="4"&gt;WE NOW TAKE CREDIT CARDS&lt;/font&gt;&lt;/b&gt;&lt;/p&gt; &lt;/font&gt;&lt;/p&gt;</t>
+    <t>ADA WONG &lt;p align="center"&gt;&lt;font size="7"&gt;ADA WONG'S MASSAGE &lt;/font&gt;&lt;/p&gt;  &lt;p align="center"&gt;&lt;font size="6"&gt;NEW GIRLS TODAY &lt;p align="center"&gt;&lt;font size="6"&gt;All New Girls. Come try a massage today &lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt;We offer a quality massage to relieve your stress. TRY 4 HANDS.&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt; &lt;font size="6"&gt;11287 Washington Blvd. Culver City, Ca. 90230&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="4"&gt;Just west of the 405&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt; TEL: 310-756-3363 &lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt; Open 9:30am to 10pm OPEN 7 DAYS &lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="6"&gt;Just $40/half hr. &lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="5"&gt;Cross streets Washington Blvd and Sawtelle. Just a few doors down&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="5"&gt;from the 7/11&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="4"&gt; Plenty of parking in the back too. Just  ring the bell.&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt;&lt;font size="4"&gt;Come in 10 times and get 1 time free.&lt;/font&gt;&lt;/p&gt; &lt;p align="center"&gt; &lt;font size="4"&gt;WE NOW TAKE CREDIT CARDS&lt;/font&gt; &lt;/p&gt; &lt;/font&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>858</t>
@@ -1535,7 +1541,7 @@
     <t>Downtown, Los Angeles, ☑️Whittier/Santa Fe Spring/ Pico Rivera</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;p&gt;&lt;b&gt;💝💝💝 ACE SPA 💝💝💝(OLD EURO TOUCH) - ALL NEW GIRLS&lt;p&gt; &lt;p&gt; Hey, We are All BEAUTIFUL SEXY YOUNG LATINA &amp;amp; ASIAN Girls&lt;p&gt; 💳💳💳 We Accept All Major Credit Cards 💳💳💳&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;p&gt; 💝💝💝 ACE SPA 💝💝💝(OLD EURO TOUCH) - ALL NEW GIRLS&lt;p&gt; &lt;p&gt; Hey, We are All BEAUTIFUL SEXY YOUNG LATINA &amp;amp; ASIAN Girls&lt;p&gt; 💳💳💳 We Accept All Major Credit Cards 💳💳💳&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt; </t>
   </si>
   <si>
     <t>❎ACE SPA❎❎❎❎❎❎❎❎❎❎❎❎❎░░░░░░  BEAUTIFUL YOUNG LATINA &amp; ASIAN☎️562-479-9835☎️ ░░░░░❎❎❎❎❎❎❎❎❎❎❎❎</t>
@@ -2884,16 +2890,16 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
@@ -2902,16 +2908,16 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2135</v>
+        <v>158</v>
+      </c>
+      <c r="J27" t="s">
+        <v>159</v>
       </c>
       <c r="K27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
@@ -2928,10 +2934,10 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
@@ -2940,16 +2946,16 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J28" t="n">
         <v>1706</v>
       </c>
       <c r="K28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -2966,10 +2972,10 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2978,16 +2984,16 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J29" t="n">
         <v>1344</v>
       </c>
       <c r="K29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
@@ -3004,10 +3010,10 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -3017,13 +3023,13 @@
       </c>
       <c r="H30" t="s"/>
       <c r="I30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J30" t="n">
         <v>1558</v>
       </c>
       <c r="K30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -3040,10 +3046,10 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -3052,16 +3058,16 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -3078,10 +3084,10 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3093,13 +3099,13 @@
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J32" t="n">
         <v>1416</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -3116,10 +3122,10 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3128,16 +3134,16 @@
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J33" t="n">
         <v>1416</v>
       </c>
       <c r="K33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -3154,10 +3160,10 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -3166,16 +3172,16 @@
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J34" t="n">
         <v>1805</v>
       </c>
       <c r="K34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -3192,10 +3198,10 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -3204,16 +3210,16 @@
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J35" t="n">
         <v>1449</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -3230,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
         <v>48</v>
@@ -3245,7 +3251,7 @@
         <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J36" t="n">
         <v>1706</v>
@@ -3268,10 +3274,10 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -3280,16 +3286,16 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J37" t="n">
         <v>2456</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s">
         <v>22</v>
@@ -3306,10 +3312,10 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
@@ -3319,13 +3325,13 @@
       </c>
       <c r="H38" t="s"/>
       <c r="I38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J38" t="n">
         <v>1818</v>
       </c>
       <c r="K38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L38" t="s">
         <v>22</v>
@@ -3342,10 +3348,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3354,16 +3360,16 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J39" t="n">
         <v>2439</v>
       </c>
       <c r="K39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -3380,10 +3386,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -3392,16 +3398,16 @@
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J40" t="n">
         <v>2401</v>
       </c>
       <c r="K40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s">
         <v>22</v>
@@ -3418,10 +3424,10 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3431,13 +3437,13 @@
       </c>
       <c r="H41" t="s"/>
       <c r="I41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J41" t="n">
         <v>1300</v>
       </c>
       <c r="K41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L41" t="s">
         <v>22</v>
@@ -3454,10 +3460,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3466,16 +3472,16 @@
         <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J42" t="n">
         <v>1500</v>
       </c>
       <c r="K42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
@@ -3492,10 +3498,10 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -3504,16 +3510,16 @@
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J43" t="n">
         <v>1420</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s">
         <v>22</v>
@@ -3530,28 +3536,28 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J44" t="n">
         <v>1723</v>
       </c>
       <c r="K44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s">
         <v>22</v>
@@ -3568,20 +3574,20 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H45" t="s"/>
       <c r="I45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J45" t="n">
         <v>1432</v>
@@ -3604,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -3616,16 +3622,16 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J46" t="n">
         <v>2042</v>
       </c>
       <c r="K46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s">
         <v>22</v>
@@ -3642,10 +3648,10 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -3654,16 +3660,16 @@
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J47" t="n">
         <v>2059</v>
       </c>
       <c r="K47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L47" t="s">
         <v>22</v>
@@ -3680,10 +3686,10 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -3692,16 +3698,16 @@
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
@@ -3718,10 +3724,10 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -3730,16 +3736,16 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I49" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J49" t="n">
         <v>1425</v>
       </c>
       <c r="K49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -3756,10 +3762,10 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F50" t="s">
         <v>49</v>
@@ -3768,16 +3774,16 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J50" t="n">
         <v>1901</v>
       </c>
       <c r="K50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L50" t="s">
         <v>22</v>
@@ -3794,28 +3800,28 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H51" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J51" t="n">
         <v>1606</v>
       </c>
       <c r="K51" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
@@ -3832,10 +3838,10 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3844,16 +3850,16 @@
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
@@ -3870,10 +3876,10 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -3882,16 +3888,16 @@
         <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I53" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J53" t="n">
         <v>1609</v>
       </c>
       <c r="K53" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s">
         <v>22</v>
@@ -3908,10 +3914,10 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E54" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3920,16 +3926,16 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J54" t="n">
         <v>2413</v>
       </c>
       <c r="K54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L54" t="s">
         <v>22</v>
@@ -3946,10 +3952,10 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -3958,16 +3964,16 @@
         <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J55" t="n">
         <v>2023</v>
       </c>
       <c r="K55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
@@ -3984,10 +3990,10 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
         <v>49</v>
@@ -3997,13 +4003,13 @@
       </c>
       <c r="H56" t="s"/>
       <c r="I56" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K56" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L56" t="s">
         <v>22</v>
@@ -4020,28 +4026,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H57" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I57" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J57" t="n">
         <v>1714</v>
       </c>
       <c r="K57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
@@ -4058,10 +4064,10 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -4070,16 +4076,16 @@
         <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J58" t="n">
         <v>1619</v>
       </c>
       <c r="K58" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L58" t="s">
         <v>22</v>
@@ -4096,10 +4102,10 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4108,16 +4114,16 @@
         <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I59" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J59" t="n">
         <v>1611</v>
       </c>
       <c r="K59" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s">
         <v>22</v>
@@ -4134,10 +4140,10 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
@@ -4146,16 +4152,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I60" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J60" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K60" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s">
         <v>22</v>
@@ -4172,10 +4178,10 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F61" t="s">
         <v>49</v>
@@ -4184,16 +4190,16 @@
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I61" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J61" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K61" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L61" t="s">
         <v>22</v>
@@ -4210,10 +4216,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F62" t="s">
         <v>49</v>
@@ -4222,16 +4228,16 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I62" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J62" t="n">
         <v>2405</v>
       </c>
       <c r="K62" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L62" t="s">
         <v>22</v>
@@ -4248,10 +4254,10 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E63" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F63" t="s">
         <v>49</v>
@@ -4260,16 +4266,16 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I63" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J63" t="n">
         <v>1412</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L63" t="s">
         <v>22</v>
@@ -4286,10 +4292,10 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E64" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
         <v>49</v>
@@ -4299,13 +4305,13 @@
       </c>
       <c r="H64" t="s"/>
       <c r="I64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J64" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K64" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L64" t="s">
         <v>22</v>
@@ -4322,10 +4328,10 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E65" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F65" t="s">
         <v>49</v>
@@ -4334,16 +4340,16 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I65" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J65" t="n">
         <v>1837</v>
       </c>
       <c r="K65" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L65" t="s">
         <v>22</v>
@@ -4354,16 +4360,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E66" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F66" t="s">
         <v>49</v>
@@ -4372,16 +4378,16 @@
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I66" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J66" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s">
         <v>22</v>
@@ -4398,10 +4404,10 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F67" t="s">
         <v>49</v>
@@ -4410,16 +4416,16 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I67" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J67" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K67" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L67" t="s">
         <v>22</v>
@@ -4436,10 +4442,10 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E68" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F68" t="s">
         <v>49</v>
@@ -4448,16 +4454,16 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I68" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J68" t="n">
         <v>1550</v>
       </c>
       <c r="K68" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L68" t="s">
         <v>22</v>
@@ -4474,10 +4480,10 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E69" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
         <v>49</v>
@@ -4486,16 +4492,16 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I69" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J69" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K69" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L69" t="s">
         <v>22</v>
@@ -4512,10 +4518,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E70" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F70" t="s">
         <v>49</v>
@@ -4524,16 +4530,16 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I70" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J70" t="n">
         <v>1412</v>
       </c>
       <c r="K70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L70" t="s">
         <v>22</v>
@@ -4550,10 +4556,10 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F71" t="s">
         <v>49</v>
@@ -4562,16 +4568,16 @@
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I71" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J71" t="n">
         <v>1604</v>
       </c>
       <c r="K71" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L71" t="s">
         <v>22</v>
@@ -4582,16 +4588,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E72" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F72" t="s">
         <v>49</v>
@@ -4600,16 +4606,16 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I72" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J72" t="n">
         <v>2436</v>
       </c>
       <c r="K72" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L72" t="s">
         <v>22</v>
@@ -4626,10 +4632,10 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E73" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F73" t="s">
         <v>49</v>
@@ -4638,16 +4644,16 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I73" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J73" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K73" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
@@ -4664,28 +4670,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E74" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F74" t="s">
         <v>49</v>
       </c>
       <c r="G74" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H74" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I74" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J74" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K74" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -4702,10 +4708,10 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E75" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F75" t="s">
         <v>49</v>
@@ -4714,16 +4720,16 @@
         <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I75" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J75" t="n">
         <v>1312</v>
       </c>
       <c r="K75" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
@@ -4740,10 +4746,10 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F76" t="s">
         <v>49</v>
@@ -4753,13 +4759,13 @@
       </c>
       <c r="H76" t="s"/>
       <c r="I76" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J76" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K76" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -4770,16 +4776,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E77" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F77" t="s">
         <v>49</v>
@@ -4788,16 +4794,16 @@
         <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I77" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J77" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K77" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -4814,10 +4820,10 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E78" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F78" t="s">
         <v>49</v>
@@ -4826,16 +4832,16 @@
         <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I78" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J78" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K78" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
@@ -4852,10 +4858,10 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E79" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F79" t="s">
         <v>49</v>
@@ -4865,13 +4871,13 @@
       </c>
       <c r="H79" t="s"/>
       <c r="I79" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J79" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K79" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L79" t="s">
         <v>22</v>
@@ -4888,10 +4894,10 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E80" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F80" t="s">
         <v>49</v>
@@ -4900,16 +4906,16 @@
         <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J80" t="n">
         <v>2405</v>
       </c>
       <c r="K80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L80" t="s">
         <v>22</v>
@@ -4926,10 +4932,10 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E81" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F81" t="s">
         <v>49</v>
@@ -4938,16 +4944,16 @@
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I81" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J81" t="n">
         <v>2405</v>
       </c>
       <c r="K81" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L81" t="s">
         <v>22</v>
@@ -4964,10 +4970,10 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E82" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F82" t="s">
         <v>49</v>
@@ -4976,16 +4982,16 @@
         <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I82" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J82" t="n">
         <v>1302</v>
       </c>
       <c r="K82" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L82" t="s">
         <v>22</v>
@@ -5002,10 +5008,10 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E83" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F83" t="s">
         <v>49</v>
@@ -5014,16 +5020,16 @@
         <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I83" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J83" t="n">
         <v>2451</v>
       </c>
       <c r="K83" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L83" t="s">
         <v>22</v>
@@ -5040,10 +5046,10 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E84" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F84" t="s">
         <v>49</v>
@@ -5053,13 +5059,13 @@
       </c>
       <c r="H84" t="s"/>
       <c r="I84" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J84" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K84" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L84" t="s">
         <v>22</v>
@@ -5076,10 +5082,10 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E85" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F85" t="s">
         <v>49</v>
@@ -5089,13 +5095,13 @@
       </c>
       <c r="H85" t="s"/>
       <c r="I85" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J85" t="n">
         <v>2405</v>
       </c>
       <c r="K85" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
@@ -5112,10 +5118,10 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E86" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -5124,16 +5130,16 @@
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I86" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J86" t="n">
         <v>1944</v>
       </c>
       <c r="K86" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
@@ -5150,10 +5156,10 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E87" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F87" t="s">
         <v>49</v>
@@ -5162,16 +5168,16 @@
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I87" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J87" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K87" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -5188,10 +5194,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E88" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F88" t="s">
         <v>49</v>
@@ -5201,13 +5207,13 @@
       </c>
       <c r="H88" t="s"/>
       <c r="I88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J88" t="n">
         <v>2405</v>
       </c>
       <c r="K88" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
@@ -5224,10 +5230,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E89" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F89" t="s">
         <v>49</v>
@@ -5236,16 +5242,16 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I89" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J89" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K89" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L89" t="s">
         <v>22</v>
@@ -5262,10 +5268,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E90" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F90" t="s">
         <v>49</v>
@@ -5274,16 +5280,16 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I90" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J90" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K90" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
@@ -5300,10 +5306,10 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E91" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F91" t="s">
         <v>49</v>
@@ -5312,16 +5318,16 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I91" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J91" t="n">
         <v>2204</v>
       </c>
       <c r="K91" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L91" t="s">
         <v>22</v>
@@ -5338,10 +5344,10 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E92" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F92" t="s">
         <v>49</v>
@@ -5351,13 +5357,13 @@
       </c>
       <c r="H92" t="s"/>
       <c r="I92" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J92" t="n">
         <v>2405</v>
       </c>
       <c r="K92" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L92" t="s">
         <v>22</v>
@@ -5368,16 +5374,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E93" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F93" t="s">
         <v>49</v>
@@ -5386,16 +5392,16 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I93" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J93" t="n">
         <v>1422</v>
       </c>
       <c r="K93" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L93" t="s">
         <v>22</v>
@@ -5412,10 +5418,10 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E94" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F94" t="s">
         <v>49</v>
@@ -5424,16 +5430,16 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I94" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J94" t="s">
         <v>152</v>
       </c>
       <c r="K94" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L94" t="s">
         <v>22</v>
@@ -5450,10 +5456,10 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E95" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F95" t="s">
         <v>49</v>
@@ -5462,16 +5468,16 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I95" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J95" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K95" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L95" t="s">
         <v>22</v>
@@ -5482,16 +5488,16 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F96" t="s">
         <v>49</v>
@@ -5500,16 +5506,16 @@
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I96" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J96" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K96" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L96" t="s">
         <v>22</v>
@@ -5526,10 +5532,10 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E97" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F97" t="s">
         <v>49</v>
@@ -5541,7 +5547,7 @@
         <v>95</v>
       </c>
       <c r="I97" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J97" t="n">
         <v>1620</v>
@@ -5564,10 +5570,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F98" t="s">
         <v>49</v>
@@ -5576,16 +5582,16 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I98" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J98" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K98" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
@@ -5602,10 +5608,10 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E99" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F99" t="s">
         <v>49</v>
@@ -5614,16 +5620,16 @@
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I99" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J99" t="n">
         <v>1529</v>
       </c>
       <c r="K99" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
@@ -5640,10 +5646,10 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E100" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F100" t="s">
         <v>49</v>
@@ -5652,16 +5658,16 @@
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I100" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J100" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K100" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L100" t="s">
         <v>22</v>
@@ -5678,10 +5684,10 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E101" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F101" t="s">
         <v>49</v>
@@ -5691,13 +5697,13 @@
       </c>
       <c r="H101" t="s"/>
       <c r="I101" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J101" t="n">
         <v>1412</v>
       </c>
       <c r="K101" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>
